--- a/data_streamlit.xlsx
+++ b/data_streamlit.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbanaZejnullahi\Desktop\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbionKrasniqi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15AC8ED-79F0-459B-BA9A-A47963890582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3EC513-5420-4794-89D2-25D25E56E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B91FA312-5965-467A-B95A-FCE2D43D76F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B91FA312-5965-467A-B95A-FCE2D43D76F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$11</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -51,6 +54,12 @@
   </si>
   <si>
     <t>Narrative</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Radius at the Domain Analysis</t>
   </si>
   <si>
     <t xml:space="preserve">Subject property: Radius at the Domain - a stabilized property
@@ -83,87 +92,6 @@
 ATR % slope: 0.673
 Traffic per Week slope: -0.23
 Leases per Week slope: -0.41  </t>
-  </si>
-  <si>
-    <t>Radius at the Domain Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenAI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject property: Accent Southrail - a stabilized property
-Number of total units is: 304.0
-Occupancy: 89.5 (+0.0%)
-RevPau: 1301 (+3.8%)
-Net Effective Rent: 1454 (+3.8%)
-ATR % is: 10.2 (slope is -0.85)
-Leases per Week: 2.0 (slope is -0.4)
-Traffic per Week: 23.0 (slope is -0.1)
-Closing Ratio for subject property is: 0.2
-Leases needed per week to achieve 6% ATR in 60 days: 1.6
-Average weekly added ATR: 7.9
-Leases Needed: 9.5
-Traffic Needed: 47.5   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comps Data:
-Average number of total units is: 305.6
-Occupancy: 73.9 (+2.9%)
-RevPau: 1218 (+5.3%)
-Net Effective Rent: 1635 (+2.0%)
-ATR % is: 7.39  (slope is -0.039)
-Leases per Week: 2.4 (slope is -0.7)
-Traffic per Week: 10.3 (slope is -0.34)
-Closing Ratio for comps is: 0.27
-Leases needed per week to achieve 6% ATR in 60 days: 0.53
-Average weekly added ATR: 1.42
-Leases Needed: 2.0
-Traffic Needed: 7.4  </t>
-  </si>
-  <si>
-    <t>Accent Southrail Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject property: The Coast at Ponte Vedra Lakes - a stabilized property
-Number of total units is: 344.0
-Occupancy: 93.3 (+0.0%)
-RevPau: 1397 (+1.7%)
-Net Effective Rent: 1497 (+1.7%)
-ATR % is: 5.5 (slope is -0.57)
-Leases per Week: 7.0 (slope is 0.7)
-Traffic per Week: 3.0 (slope is -2.0)
-Closing Ratio for subject property is: 0.83
-Leases needed per week to achieve 6% ATR in 60 days: 0
-Average weekly added ATR: 4.38
-Leases Needed: 4.4
-Traffic Needed: 5.3   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comps Data:
-Average number of total units is: 213.7
-Occupancy: 91.2 (-1.3%)
-RevPau: 1644 (-0.3%)
-Net Effective Rent: 1798 (+1.3%)
-ATR % is: 6.1  (slope is 0.392)
-Leases per Week: 1.1 (slope is -0.39)
-Traffic per Week: 7.4 (slope is 0.11)
-Closing Ratio for comps is: 0.21
-Leases needed per week to achieve 6% ATR in 60 days: 0.03
-Average weekly added ATR: 1.54
-Leases Needed: 1.6
-Traffic Needed: 7.6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Coast at Ponte Vedra Lakes </t>
-  </si>
-  <si>
-    <t>Anthropic</t>
-  </si>
-  <si>
-    <t>Placeholder Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeholder Analysis </t>
   </si>
   <si>
     <t>Radius at the Domain Analysis
@@ -188,6 +116,39 @@
 The comps are in a less ideal position, with an elevated ATR and declining traffic and leases per week. They haven’t made significant changes to improve their situation, but the ATR, traffic, leases per week, and Net Effective Rent data should be monitored for any changes that could quickly impact the subject property.</t>
   </si>
   <si>
+    <t>Accent Southrail Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject property: Accent Southrail - a stabilized property
+Number of total units is: 304.0
+Occupancy: 89.5 (+0.0%)
+RevPau: 1301 (+3.8%)
+Net Effective Rent: 1454 (+3.8%)
+ATR % is: 10.2 (slope is -0.85)
+Leases per Week: 2.0 (slope is -0.4)
+Traffic per Week: 23.0 (slope is -0.1)
+Closing Ratio for subject property is: 0.2
+Leases needed per week to achieve 6% ATR in 60 days: 1.6
+Average weekly added ATR: 7.9
+Leases Needed: 9.5
+Traffic Needed: 47.5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comps Data:
+Average number of total units is: 305.6
+Occupancy: 73.9 (+2.9%)
+RevPau: 1218 (+5.3%)
+Net Effective Rent: 1635 (+2.0%)
+ATR % is: 7.39  (slope is -0.039)
+Leases per Week: 2.4 (slope is -0.7)
+Traffic per Week: 10.3 (slope is -0.34)
+Closing Ratio for comps is: 0.27
+Leases needed per week to achieve 6% ATR in 60 days: 0.53
+Average weekly added ATR: 1.42
+Leases Needed: 2.0
+Traffic Needed: 7.4  </t>
+  </si>
+  <si>
     <t>Accent Southrail Analysis
 Current Performance: Accent Southrail, a stabilized property with 304 units, maintains an occupancy of 89.5%, showing no change from the previous period. The property’s RevPau has increased by 3.8% to $1301. This increase in RevPau is driven by a Net Effective Rent (NER) increase of 3.8% to $1454, while occupancy remains unchanged. The combination of stable occupancy and increased NER reflects moderate revenue growth.
 In comparison, the comps, with an average of 305.6 units, have an occupancy of 73.9%, which has increased by 2.9%. Their RevPau is $1218, which has increased by 5.3%. This increase is primarily driven by an occupancy increase of 2.9% and a Net Effective Rent increase of 2.0% to $1635. The comps show signs of revenue growth, driven by both occupancy and NER improvements.
@@ -210,6 +171,39 @@
 Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a relatively better position with lower ATR and higher closing ratios, but their decreasing leasing and traffic trends should be closely monitored.</t>
   </si>
   <si>
+    <t xml:space="preserve">The Coast at Ponte Vedra Lakes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject property: The Coast at Ponte Vedra Lakes - a stabilized property
+Number of total units is: 344.0
+Occupancy: 93.3 (+0.0%)
+RevPau: 1397 (+1.7%)
+Net Effective Rent: 1497 (+1.7%)
+ATR % is: 5.5 (slope is -0.57)
+Leases per Week: 7.0 (slope is 0.7)
+Traffic per Week: 3.0 (slope is -2.0)
+Closing Ratio for subject property is: 0.83
+Leases needed per week to achieve 6% ATR in 60 days: 0
+Average weekly added ATR: 4.38
+Leases Needed: 4.4
+Traffic Needed: 5.3   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comps Data:
+Average number of total units is: 213.7
+Occupancy: 91.2 (-1.3%)
+RevPau: 1644 (-0.3%)
+Net Effective Rent: 1798 (+1.3%)
+ATR % is: 6.1  (slope is 0.392)
+Leases per Week: 1.1 (slope is -0.39)
+Traffic per Week: 7.4 (slope is 0.11)
+Closing Ratio for comps is: 0.21
+Leases needed per week to achieve 6% ATR in 60 days: 0.03
+Average weekly added ATR: 1.54
+Leases Needed: 1.6
+Traffic Needed: 7.6  </t>
+  </si>
+  <si>
     <t>The Coast at Ponte Vedra Lakes Analysis
 Current Performance: The Coast at Ponte Vedra Lakes, a stabilized property with 344 units, maintains an occupancy of 93.3%, showing no change from the previous period. The property’s RevPau has increased by 1.7% to $1397. This increase in RevPau is driven by a Net Effective Rent (NER) increase of 1.7% to $1497, while occupancy remains unchanged. The combination of stable occupancy and increased NER reflects moderate revenue growth.
 In comparison, the comps, with an average of 213.7 units, have an occupancy of 91.2%, which has decreased by 1.3%. Their RevPau is $1644, which has decreased by 0.3%. This decline is primarily driven by a slight decrease in occupancy, despite a Net Effective Rent increase of 1.3% to $1798. The comps show signs of revenue decline, driven by occupancy reduction.
@@ -231,12 +225,288 @@
 Overall Analysis: The leading indicators for The Coast at Ponte Vedra Lakes suggest that while the property is generating lower traffic, the high conversion rate into leases is maintaining performance. This indicates efficient leasing strategies. The comps, although generating higher traffic, are not converting efficiently, which negatively impacts their ATR.
 Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a less ideal position with higher ATR and lower closing ratios, indicating a need for strategies to improve conversion rates and reduce availability.</t>
   </si>
+  <si>
+    <t>Alanza Brook Apartments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject property: Alanza Brook Apartments - a stabilized property
+Number of total units is: 336.0
+Occupancy: 97.0 (+0.3%)
+RevPau: 1414 (+0.5%)
+Net Effective Rent: 1457 (+0.2%)
+ATR % is: 6.3 (slope is 0.3)
+Leases per Week: 5.0 (slope is 0.9)
+Traffic per Week: 18.0 (slope is 1.4)
+Closing Ratio for subject property is: 0.24
+Leases needed per week to achieve 6% ATR in 60 days: 0.13
+Average weekly added ATR: 4.96
+Leases Needed: 5.1
+Traffic Needed: 21.2   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comps Data:
+Average number of total units is: 372.0
+Occupancy: 89.4 (+0.1%)
+RevPau: 1176 (-4.3%)
+Net Effective Rent: 1311 (-4.6%)
+ATR % is: 7.76  (slope is 0.1)
+Leases per Week: 5.7 (slope is 0.45)
+Traffic per Week: 14.7 (slope is -0.03)
+Closing Ratio for comps is: 0.42
+Leases needed per week to achieve 6% ATR in 60 days: 0.82
+Average weekly added ATR: 6.93
+Leases Needed: 7.8
+Traffic Needed: 18.6  </t>
+  </si>
+  <si>
+    <t>Current Performance: Alanza Brook Apartments, a stabilized property with 336 units, maintains an occupancy of 97.0%, showing a slight increase of 0.3% from the previous period. The property’s RevPau has increased by 0.5% to $1414. This increase in RevPau is driven by a Net Effective Rent (NER) increase of 0.2% to $1457, alongside the occupancy increase. The combination of slightly higher occupancy and increased NER reflects moderate revenue growth.
+In comparison, the comps, with an average of 372 units, have an occupancy of 89.4%, which has increased by 0.1%. Their RevPau is $1176, which has decreased by 4.3%. This decline is primarily driven by a decrease in NER of 4.6% to $1311, despite the slight increase in occupancy. The comps show signs of revenue decline, driven by both occupancy and NER reductions.
+Leading Indicators:
+1.	ATR %:
+o	Alanza Brook Apartments: ATR % is 6.3%, which is slightly above the target of 6%, indicating a need to manage availability more effectively.
+o	Comps: ATR % is 7.76%, indicating higher availability compared to the subject property. This suggests that comps are struggling with higher supply and lower demand.
+2.	Traffic per Week:
+o	Alanza Brook Apartments: Traffic per week is 18.0, with an increasing trend. Despite this, the closing ratio remains low at 0.24, indicating that the property is not converting enough traffic into leases.
+o	Comps: Traffic per week is 14.7, slightly decreasing. However, with a higher closing ratio of 0.42, comps are more efficiently converting traffic into leases. This suggests that comps are currently managing their traffic better but need more traffic to improve overall performance.
+3.	Leases per Week:
+o	Alanza Brook Apartments: Leases per week are 5.0, with an increasing trend. Given the ATR % of 6.3%, the property is currently signing enough leases, but there is room for improvement in conversion rates.
+o	Comps: Leases per week are 5.7, with a slight increase. Despite this, comps are driving sufficient traffic and signing enough leases to positively impact their ATR.
+Performance Targets:
+To achieve or maintain optimal performance, Alanza Brook Apartments needs to focus on the following metrics:
+•	Leases Needed: 5.1 leases per week
+•	Traffic Needed: 21.2 traffic per week
+These targets will help the property achieve an ATR under 6%.
+Overall Analysis: The leading indicators for Alanza Brook Apartments suggest that while the property is generating substantial traffic, the conversion rate into leases is low. This indicates a need for strategies to improve the closing ratio. The comps, although generating lower traffic, are managing better conversion rates, which positively impacts their ATR.
+Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a less ideal position with higher ATR and lower closing ratios, indicating a need for strategies to improve conversion rates and reduce availability.</t>
+  </si>
+  <si>
+    <t>Arcadia Lofts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject property: Arcadia Lofts - a stabilized property
+Number of total units is: 63.0
+Occupancy: 87.3 (-5.2%)
+RevPau: 1175 (-8.6%)
+Net Effective Rent: 1346 (-3.6%)
+ATR % is: 12.7 (slope is 2.37)
+Leases per Week: 0.0 (slope is 0.0)
+Traffic per Week: 0.0 (slope is 0.0)
+Closing Ratio for subject property is: 0.29
+Leases needed per week to achieve 6% ATR in 60 days: 0.53
+Average weekly added ATR: 0.33
+Leases Needed: 0.9
+Traffic Needed: 3.1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comps Data:
+Average number of total units is: 212.0
+Occupancy: 94.3 (+0.3%)
+RevPau: 1348 (-0.9%)
+Net Effective Rent: 1425 (-1.6%)
+ATR % is: 1.02  (slope is -0.411)
+Leases per Week: 6.9 (slope is 1.41)
+Traffic per Week: 15.7 (slope is 3.04)
+Closing Ratio for comps is: 0.34
+Leases needed per week to achieve 6% ATR in 60 days: 0
+Average weekly added ATR: 2.42
+Leases Needed: 2.4
+Traffic Needed: 7.1  </t>
+  </si>
+  <si>
+    <t>Arcadia Lofts Analysis
+Current Performance: Arcadia Lofts, a stabilized property with 63 units, maintains an occupancy of 87.3%, showing a significant decrease of 5.2% from the previous period. The property’s RevPau has decreased by 8.6% to $1175. This decrease in RevPau is driven by a Net Effective Rent (NER) decrease of 3.6% to $1346, alongside the occupancy decrease. The combination of lower occupancy and decreased NER reflects a decline in revenue.
+In comparison, the comps, with an average of 212 units, have an occupancy of 94.3%, which has increased by 0.3%. Their RevPau is $1348, which has decreased by 0.9%. This decline is primarily driven by a NER decrease of 1.6% to $1425, despite the slight increase in occupancy. The comps show signs of revenue decline, driven by NER reductions.
+Leading Indicators:
+1.	ATR %:
+o	Arcadia Lofts: ATR % is 12.7%, which is significantly above the target of 6%, indicating high availability and an urgent need to manage vacancies.
+o	Comps: ATR % is 1.02%, indicating much lower availability compared to the subject property. This suggests that comps are managing their supply more effectively.
+2.	Traffic per Week:
+o	Arcadia Lofts: Traffic per week is 0.0, with no change. The lack of traffic is a critical issue, contributing to the property's inability to generate leases.
+o	Comps: Traffic per week is 15.7, with an increasing trend. With a higher closing ratio of 0.34, comps are efficiently converting traffic into leases, indicating strong demand and effective leasing strategies.
+3.	Leases per Week:
+o	Arcadia Lofts: Leases per week are 0.0, with no change. The property is not generating any new leases, which is problematic given the high ATR %.
+o	Comps: Leases per week are 6.9, with an increasing trend. Comps are driving sufficient traffic and signing enough leases to positively impact their ATR.
+Performance Targets:
+To achieve or maintain optimal performance, Arcadia Lofts needs to focus on the following metrics:
+•	Leases Needed: 0.9 leases per week
+•	Traffic Needed: 3.1 traffic per week
+These targets will help the property achieve an ATR under 6%.
+Overall Analysis: The leading indicators for Arcadia Lofts suggest significant challenges. The property is experiencing high availability, low traffic, and no new leases. This indicates an urgent need for strategies to increase traffic and improve conversion rates. The comps, although experiencing a slight decline in NER, are managing much better with lower ATR, higher traffic, and efficient conversion rates.
+Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. Arcadia Lofts needs to implement aggressive marketing and leasing strategies to attract traffic and convert it into leases. The comps are in a relatively better position with lower ATR and higher closing ratios, indicating effective management of supply and demand.</t>
+  </si>
+  <si>
+    <t>Anthropic</t>
+  </si>
+  <si>
+    <t>Placeholder Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder Analysis </t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Overall Performance:
+Radius at the Domain, a stabilized property with 161 units, maintains an occupancy of 94.3%, showing an increase of 2.5% from the previous period. The property’s RevPAU has increased by 10.9% to $1276. This increase in RevPAU is driven by both an occupancy increase of 2.5% and a Net Effective Rent (NER) increase of 8.2% to $1354. The combined effect of higher occupancy and increased NER reflects positive potential revenue growth.
+In comparison, the comps, with an average of 522.5 units, have an occupancy of 92.3%, which has only increased by 0.2%. Their RevPAU is $1220, which has decreased by 2.5%. This decline is primarily driven by a decrease in NER of 2.8% to $1317, despite the slight increase in occupancy. Overall, current performance metrics are good for the subject property, but the comps are showing signs of rent sensitivity due to the decreasing RevPAU driven by lower rents.
+Leading Indicators:
+ATR %:
+Radius at the Domain: ATR % is 2.5%, and has been decreasing over the last 30 days (slope: -0.075), indicating a strong seller's market.
+Comps: ATR % is 7.51%, and has been increasing over the last 30 days (slope: 0.673), indicating an increase in supply available in the area. This elevated ATR % may result in comps taking action to mitigate exposure, such as increasing marketing efforts, reducing rents, or improving closing ratios.
+Traffic per Week:
+Radius at the Domain: Traffic per week is 16.0, with a decline over the last 30 days (slope: -3.3), potentially due to the rent increases. However, based on the average closing ratio of 0.57 and the leases needed to maintain a good ATR, they are currently driving more than enough traffic.
+Comps: Traffic per week is 17.6, also decreasing (slope: -0.23). Based on their lower closing ratio of 0.29 and the number of new leases needed to achieve a good ATR, comps are not driving enough traffic. Lower traffic at the subject property isn’t a concern due to their low availability, but comp traffic patterns should be monitored.
+Leases per Week:
+Radius at the Domain: Leases per week are 9.0, with a decline over the last 30 days (slope: -2.4), likely due to increased rents. Given their low ATR %, this indicates they are testing market rent sensitivity.
+Comps: Leases per week are 7.0, also decreasing (slope: -0.41) despite lowering Net Effective Rent. While comps are driving enough traffic to impact their ATR positively, this metric, along with their lease/week trends, should be closely monitored.
+Performance Targets:
+To achieve or maintain optimal performance, Radius at the Domain needs to focus on the following metrics:
+Leases Needed: 6.4 leases per week
+Traffic Needed: 11.2 traffic per week
+These targets will help the property maintain or achieve an ATR under 6%.
+Overall Analysis:
+The leading indicators for Radius at the Domain are in a good state, suggesting the property can continue leasing units at current levels or higher. However, it’s crucial to monitor ATR, traffic, and leases for both the property and comps to ensure the balance of supply and demand remains favorable.
+The comps are in a less ideal position, with an elevated ATR and declining traffic and leases per week. They haven’t made significant changes to improve their situation, but the ATR, traffic, leases per week, and Net Effective Rent data should be monitored for any changes that could quickly impact the subject property.</t>
+  </si>
+  <si>
+    <t>The subject property, with 304 units, is currently experiencing an occupancy of 89.5%, a RevPAU of $1301, and a Net Effective Rent of $1454. The ATR % is high at 10.2%, indicating a surplus of availability that needs to be managed effectively. The property is generating 2.0 leases per week and 23.0 traffic per week, with a low closing ratio of 0.2. The negative slopes of ATR %, traffic per week, and leases per week suggest a decline in performance over the last 30 days.
+In comparison, the comps data shows an average occupancy of 73.9%, a RevPAU of $1218, and a Net Effective Rent of $1635. The ATR % is lower at 7.39%, indicating a more balanced supply and demand situation. The comps are generating 2.4 leases per week and 10.3 traffic per week, with a slightly higher closing ratio of 0.27. The negative slopes of ATR %, traffic per week, and leases per week for the comps also suggest a decline in performance over the last 30 days.
+The leading indicators for the subject property indicate a need to manage availability more effectively, increase traffic, and improve conversion rates to leases. The comps, on the other hand, are struggling with lower occupancy, higher Net Effective Rent, and lower conversion rates, indicating potential challenges in attracting and retaining tenants.
+Overall, the subject property and comps both face challenges in maintaining optimal performance, with the need to focus on improving conversion rates, managing availability, and driving more traffic to achieve their performance targets. Monitoring ATR, traffic, and leases will be crucial for both properties to ensure they remain competitive in the market and achieve their revenue goals.</t>
+  </si>
+  <si>
+    <t>Overall Performance:
+The Coast at Ponte Vedra Lakes, a stabilized property with 344 units, maintains an occupancy of 93.3%, showing no change from the previous period. The property’s RevPAU has increased by 1.7% to $1397. This increase in RevPAU is driven by a Net Effective Rent (NER) increase of 1.7% to $1497, while occupancy remains unchanged. The combination of stable occupancy and increased NER reflects moderate revenue growth.
+In comparison, the comps, with an average of 213.7 units, have an occupancy of 91.2%, which has decreased by 1.3%. Their RevPAU is $1644, which has decreased by 0.3%. This decline is primarily driven by a slight decrease in occupancy, despite a Net Effective Rent increase of 1.3% to $1798. The comps show signs of revenue decline, driven by occupancy reduction.
+Leading Indicators:
+ATR %:
+The Coast at Ponte Vedra Lakes: ATR % is 5.5%, which is slightly below the target of 6%, indicating balanced availability.
+Comps: ATR % is 6.1%, indicating higher availability compared to the subject property. This suggests that comps are struggling with higher supply.
+Traffic per Week:
+The Coast at Ponte Vedra Lakes: Traffic per week is 3.0, with a decline. Despite lower traffic, the high closing ratio of 0.83 indicates efficient conversion of traffic into leases.
+Comps: Traffic per week is 7.4, slightly increasing. However, with a lower closing ratio of 0.21, comps are not efficiently converting traffic into leases. This suggests that comps are currently driving sufficient traffic but struggling to sign enough leases.
+Leases per Week:
+The Coast at Ponte Vedra Lakes: Leases per week are 7.0, with an increasing trend. Given the ATR % of 5.5%, the property is currently signing enough leases, which highlights effective conversion rates.
+Comps: Leases per week are 1.1, with a declining trend. Despite this, comps are driving enough traffic to meet their lease targets, but they need to improve conversion rates.
+Performance Targets:
+To achieve or maintain optimal performance, The Coast at Ponte Vedra Lakes needs to focus on the following metrics:
+Leases Needed: 4.4 leases per week
+Traffic Needed: 5.3 traffic per week
+These targets will help the property maintain or achieve an ATR under 6%.
+Overall Analysis:
+The leading indicators for The Coast at Ponte Vedra Lakes suggest that while the property is generating lower traffic, the high conversion rate into leases is maintaining performance. This indicates efficient leasing strategies. The comps, although generating higher traffic, are not converting efficiently, which negatively impacts their ATR.
+Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a less ideal position with higher ATR and lower closing ratios, indicating a need for strategies to improve conversion rates and reduce availability.</t>
+  </si>
+  <si>
+    <t>Overall Performance:
+Alanza Brook Apartments, a stabilized property with 336 units, maintains an occupancy of 97.0%, showing a slight increase of 0.3% from the previous period. The property’s RevPAU has increased by 0.5% to $1414. This increase in RevPAU is driven by a Net Effective Rent (NER) increase of 0.2% to $1457, alongside the occupancy increase. The combination of slightly higher occupancy and increased NER reflects moderate revenue growth.
+In comparison, the comps, with an average of 372 units, have an occupancy of 89.4%, which has increased by 0.1%. Their RevPAU is $1176, which has decreased by 4.3%. This decline is primarily driven by a decrease in NER of 4.6% to $1311, despite the slight increase in occupancy. The comps show signs of revenue decline, driven by both occupancy and NER reductions.
+Leading Indicators:
+ATR %:
+Alanza Brook Apartments: ATR % is 6.3%, which is slightly above the target of 6%, indicating a need to manage availability more effectively.
+Comps: ATR % is 7.76%, indicating higher availability compared to the subject property. This suggests that comps are struggling with higher supply and lower demand.
+Traffic per Week:
+Alanza Brook Apartments: Traffic per week is 18.0, with an increasing trend. Despite this, the closing ratio remains low at 0.24, indicating that the property is not converting enough traffic into leases.
+Comps: Traffic per week is 14.7, slightly decreasing. However, with a higher closing ratio of 0.42, comps are more efficiently converting traffic into leases. This suggests that comps are currently managing their traffic better but need more traffic to improve overall performance.
+Leases per Week:
+Alanza Brook Apartments: Leases per week are 5.0, with an increasing trend. Given the ATR % of 6.3%, the property is currently signing enough leases, but there is room for improvement in conversion rates.
+Comps: Leases per week are 5.7, with a slight increase. Despite this, comps are driving sufficient traffic and signing enough leases to positively impact their ATR.
+Performance Targets:
+To achieve or maintain optimal performance, Alanza Brook Apartments needs to focus on the following metrics:
+Leases Needed: 5.1 leases per week
+Traffic Needed: 21.2 traffic per week
+These targets will help the property achieve an ATR under 6%.
+Overall Analysis:
+The leading indicators for Alanza Brook Apartments suggest that while the property is generating substantial traffic, the conversion rate into leases is low. This indicates a need for strategies to improve the closing ratio. The comps, although generating lower traffic, are managing better conversion rates, which positively impacts their ATR.
+Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a less ideal position with higher ATR and lower closing ratios, indicating a need for strategies to improve conversion rates and reduce availability.</t>
+  </si>
+  <si>
+    <t>The subject property, with 63 units, maintains an occupancy of 87.3% and a RevPAU of $1175, with a Net Effective Rent of $1346. The ATR % is high at 12.7%, indicating high availability. However, with no leases or traffic per week, the property is not currently signing enough leases to maintain a good ATR. The closing ratio of 0.29 suggests that the property is converting traffic efficiently. In comparison, the comps, with an average of 212 units, have a higher occupancy of 94.3% and a slightly higher RevPAU of $1348. The Net Effective Rent is lower at $1425, but the ATR % is significantly lower at 1.02%, indicating lower availability compared to the subject property. The comps are signing enough leases and driving sufficient traffic to maintain their performance targets.
+The leading indicators for the subject property show a high ATR % and the need to increase both leases and traffic per week to improve performance. The comps, on the other hand, have lower ATR % but are driving more traffic and signing more leases, indicating better conversion rates. The subject property needs to focus on increasing both leases and traffic to achieve optimal performance targets. Monitoring ATR, traffic, and leases for both the subject property and comps is crucial to ensure a balanced supply and demand in the market.
+Overall, the subject property has potential for improvement by increasing leasing activity and traffic to achieve a better ATR %. The comps are currently in a better position with lower availability and higher conversion rates, but they should continue to monitor their performance metrics to maintain their competitive edge.</t>
+  </si>
+  <si>
+    <t>Azure OpenAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Reasoning: Let's think step by step in order to produce the assessment. We need to analyze the subject property and compare it with the comps data to understand its performance, identify leading indicators, and set performance targets.
+1. **Overall Performance**:
+   - **Subject Property**: The subject property, with 161 units, maintains an occupancy of 94.3%, which is higher than the comps' average of 92.3%. The property’s RevPAU is $1276, which is higher than the comps' average of $1220. The Net Effective Rent (NER) is $1354, also higher than the comps' average of $1317. The ATR % is 2.5%, significantly lower than the comps' average of 7.51%, indicating better management of availability.
+   - **Comps**: The comps, with an average of 522.5 units, have an occupancy of 92.3%, a RevPAU of $1220, and a NER of $1317. The higher ATR % of 7.51% suggests that the comps are struggling with higher availability.
+2. **Leading Indicators**:
+   - **ATR %**:
+     - **Subject Property**: The ATR % is 2.5%, which is well below the target of 6%, indicating efficient management of availability.
+     - **Comps**: The ATR % is 7.51%, indicating higher availability and potential issues with supply and demand balance.
+   - **Traffic per Week**:
+     - **Subject Property**: Traffic per week is 16.0, with a declining trend. Despite this, the closing ratio is high at 0.57, indicating efficient conversion of traffic into leases.
+     - **Comps**: Traffic per week is 17.6, with a slight decline. However, the closing ratio is lower at 0.29, indicating less efficient conversion.
+   - **Leases per Week**:
+     - **Subject Property**: Leases per week are 9.0, with a declining trend. Given the ATR % of 2.5%, the property is currently signing enough leases, highlighting effective conversion rates.
+     - **Comps**: Leases per week are 7.0, with a declining trend. Despite this, comps are driving enough traffic to meet their lease targets but need to improve conversion rates.
+3. **Performance Targets**:
+   - **Leases Needed**: The subject property needs 6.4 leases per week to maintain optimal performance.
+   - **Traffic Needed**: The subject property needs 11.2 traffic per week to achieve an ATR under 6%.
+4. **Overall Analysis**:
+   - The leading indicators for the subject property suggest that while it is generating lower traffic, the high conversion rate into leases is maintaining performance. This indicates efficient leasing strategies.
+   - The comps, although generating higher traffic, are not converting efficiently, which negatively impacts their ATR.
+   - Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable.
+   - The comps are in a less ideal position with higher ATR and lower closing ratios, indicating a need for strategies to improve conversion rates and reduce availability.
+---
+**Assessment**:
+The subject property, with 161 units, is performing well with an occupancy of 94.3%, a RevPAU of $1276, and a NER of $1354. The ATR % of 2.5% indicates efficient management of availability. The property is generating 16.0 traffic per week and converting it into 9.0 leases per week, with a high closing ratio of 0.57. Despite the declining trends in traffic and leases per week, the property is maintaining performance due to its efficient conversion rates.
+In comparison, the comps, with an average of 522.5 units, have an occupancy of 92.3%, a RevPAU of $1220, and a NER of $1317. The higher ATR % of 7.51% suggests that the comps are struggling with higher availability. The comps are generating 17.6 traffic per week and converting it into 7.0 leases per week, with a lower closing ratio of 0.29. The comps need to improve their conversion rates to reduce availability and enhance performance.
+To achieve or maintain optimal performance, the subject property needs to focus on achieving 6.4 leases per week and 11.2 traffic per week. This will help maintain an ATR under 6%. Overall, the subject property is in a strong position with efficient leasing strategies and effective management of availability. The comps need to address their higher availability and lower conversion rates to improve their performance. Monitoring key metrics and implementing targeted strategies will be essential for both the subject property and the comps to maintain a favorable balance of supply and demand.</t>
+  </si>
+  <si>
+    <t>**Overall Performance:**
+The subject property, with 304 units, maintains an occupancy of 89.5%, which is higher than the comps' average occupancy of 73.9%. The property’s RevPAU is $1301, which is higher than the comps' average of $1218. However, the Net Effective Rent (NER) of $1454 is lower than the comps' average of $1635. The subject property has an ATR % of 10.2%, indicating higher availability compared to the comps' average of 7.39%. The property is generating 2.0 leases per week with 23.0 traffic per week, while the comps are generating 2.4 leases per week with 10.3 traffic per week. The subject property has a closing ratio of 0.2, which is lower than the comps' average of 0.27.
+**Leading Indicators:**
+- **ATR %:** The subject property’s ATR % of 10.2% is significantly higher than the target of 6%, indicating high availability and a need to manage vacancies more effectively. The comps' ATR % of 7.39% also indicates higher availability but is still lower than the subject property.
+- **Traffic per Week:** The subject property is generating 23.0 traffic per week, which is more than double the comps' average of 10.3. Despite this high traffic, the closing ratio is low at 0.2, indicating inefficiency in converting traffic into leases.
+- **Leases per Week:** The subject property is generating 2.0 leases per week, which is slightly lower than the comps' average of 2.4. Given the high ATR %, the property needs to increase its lease generation to reduce availability.
+**Performance Targets:**
+To achieve or maintain optimal performance, the subject property needs to focus on the following metrics:
+- **Leases Needed:** 1.6 leases per week
+- **Traffic Needed:** 47.5 traffic per week
+These targets will help the property achieve an ATR under 6%.
+**Overall Analysis:**
+The leading indicators for the subject property suggest significant challenges. Despite generating substantial traffic, the property is not efficiently converting this traffic into leases, resulting in high availability. The comps, although generating lower traffic, are managing better conversion rates, which positively impacts their ATR. The subject property needs to implement strategies to improve the closing ratio, such as enhancing leasing staff training, improving marketing efforts, and offering incentives to potential tenants. Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps are in a less ideal position with higher ATR and lower closing ratios, indicating a need for strategies to improve conversion rates and reduce availability.</t>
+  </si>
+  <si>
+    <t>The subject property, with 344 units, maintains a strong occupancy rate of 93.3% and a RevPAU of $1397. The Net Effective Rent is $1497, and the ATR % is 5.5%, indicating well-managed availability. The property is signing 7.0 leases per week with a traffic of 3.0 per week, resulting in a high closing ratio of 0.83. The decreasing traffic trend is a concern, but the property is efficiently converting the traffic into leases. The comps, with an average of 213.7 units, have an occupancy of 91.2%, a RevPAU of $1644, and a NER of $1798. Their ATR % is 6.1%, and they are signing 1.1 leases per week with a traffic of 7.4 per week, resulting in a low closing ratio of 0.21. The comps are struggling with higher availability and inefficient conversion of traffic into leases. To maintain optimal performance, the subject property should focus on increasing traffic while maintaining its high closing ratio. Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. The comps need to improve their leasing strategies to convert higher traffic into leases and reduce availability.</t>
+  </si>
+  <si>
+    <t>Overall Performance:
+Arcadia Lofts, a stabilized property with 63 units, maintains an occupancy of 87.3%, showing a significant decrease of 5.2% from the previous period. The property’s RevPAU has decreased by 8.6% to $1175. This decrease in RevPAU is driven by a Net Effective Rent (NER) decrease of 3.6% to $1346, alongside the occupancy decrease. The combination of lower occupancy and decreased NER reflects a decline in revenue.
+In comparison, the comps, with an average of 212 units, have an occupancy of 94.3%, which has increased by 0.3%. Their RevPAU is $1348, which has decreased by 0.9%. This decline is primarily driven by a NER decrease of 1.6% to $1425, despite the slight increase in occupancy. The comps show signs of revenue decline, driven by NER reductions.
+Leading Indicators:
+ATR %:
+Arcadia Lofts: ATR % is 12.7%, which is significantly above the target of 6%, indicating high availability and an urgent need to manage vacancies.
+Comps: ATR % is 1.02%, indicating much lower availability compared to the subject property. This suggests that comps are managing their supply more effectively.
+Traffic per Week:
+Arcadia Lofts: Traffic per week is 0.0, with no change. The lack of traffic is a critical issue, contributing to the property's inability to generate leases.
+Comps: Traffic per week is 15.7, with an increasing trend. With a higher closing ratio of 0.34, comps are efficiently converting traffic into leases, indicating strong demand and effective leasing strategies.
+Leases per Week:
+Arcadia Lofts: Leases per week are 0.0, with no change. The property is not generating any new leases, which is problematic given the high ATR %.
+Comps: Leases per week are 6.9, with an increasing trend. Comps are driving sufficient traffic and signing enough leases to positively impact their ATR.
+Performance Targets:
+To achieve or maintain optimal performance, Arcadia Lofts needs to focus on the following metrics:
+Leases Needed: 0.9 leases per week
+Traffic Needed: 3.1 traffic per week
+These targets will help the property achieve an ATR under 6%.
+Overall Analysis:
+The leading indicators for Arcadia Lofts suggest significant challenges. The property is experiencing high availability, low traffic, and no new leases. This indicates an urgent need for strategies to increase traffic and improve conversion rates. The comps, although experiencing a slight decline in NER, are managing much better with lower ATR, higher traffic, and efficient conversion rates.
+Monitoring ATR, traffic, and leases for both the property and comps is crucial to ensure the balance of supply and demand remains favorable. Arcadia Lofts needs to implement aggressive marketing and leasing strategies to attract traffic and convert it into leases. The comps are in a relatively better position with lower ATR and higher closing ratios, indicating effective management of supply and demand.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -275,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,13 +883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109D6F8C-149A-40F7-AB39-1D9E26A5EE5F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
@@ -624,7 +897,7 @@
     <col min="5" max="5" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,109 +914,348 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="217.5">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="246.6">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="246.6">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="246.6">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="246.6">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="304.5">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.5">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="246.6">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.5">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="246.6">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B11" xr:uid="{109D6F8C-149A-40F7-AB39-1D9E26A5EE5F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>